--- a/Code/Results/Cases/Case_4_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.035641771268782</v>
+        <v>1.058160485012468</v>
       </c>
       <c r="D2">
-        <v>1.052171419231216</v>
+        <v>1.063598484966932</v>
       </c>
       <c r="E2">
-        <v>1.053734963707731</v>
+        <v>1.071366213069762</v>
       </c>
       <c r="F2">
-        <v>1.061294414702239</v>
+        <v>1.077708658268236</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066703736718464</v>
+        <v>1.0552049193028</v>
       </c>
       <c r="J2">
-        <v>1.056806303743319</v>
+        <v>1.06315314894239</v>
       </c>
       <c r="K2">
-        <v>1.062948798995526</v>
+        <v>1.066316690672659</v>
       </c>
       <c r="L2">
-        <v>1.064493202270495</v>
+        <v>1.074063577813555</v>
       </c>
       <c r="M2">
-        <v>1.071961096306045</v>
+        <v>1.080389246855213</v>
       </c>
       <c r="N2">
-        <v>1.058307089912012</v>
+        <v>1.064662948359259</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.040032096906826</v>
+        <v>1.059093648101666</v>
       </c>
       <c r="D3">
-        <v>1.055544991400849</v>
+        <v>1.064334487521868</v>
       </c>
       <c r="E3">
-        <v>1.057662137610172</v>
+        <v>1.072249595881637</v>
       </c>
       <c r="F3">
-        <v>1.065215150063275</v>
+        <v>1.078587871538276</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068334672325377</v>
+        <v>1.055491230870675</v>
       </c>
       <c r="J3">
-        <v>1.059487904031845</v>
+        <v>1.063739145959732</v>
       </c>
       <c r="K3">
-        <v>1.065513268077411</v>
+        <v>1.066867933516909</v>
       </c>
       <c r="L3">
-        <v>1.067606782830361</v>
+        <v>1.074763334994814</v>
       </c>
       <c r="M3">
-        <v>1.075076429011358</v>
+        <v>1.081086054046755</v>
       </c>
       <c r="N3">
-        <v>1.060992498380532</v>
+        <v>1.06524977755958</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.042818529192465</v>
+        <v>1.059698049085316</v>
       </c>
       <c r="D4">
-        <v>1.057688625134709</v>
+        <v>1.064811203255671</v>
       </c>
       <c r="E4">
-        <v>1.060159444044031</v>
+        <v>1.072822083231227</v>
       </c>
       <c r="F4">
-        <v>1.067708158398663</v>
+        <v>1.079157618058996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069360423236007</v>
+        <v>1.055675516836712</v>
       </c>
       <c r="J4">
-        <v>1.06118692000329</v>
+        <v>1.064118243528904</v>
       </c>
       <c r="K4">
-        <v>1.067137298645351</v>
+        <v>1.067224426321635</v>
       </c>
       <c r="L4">
-        <v>1.069582219568767</v>
+        <v>1.075216361554257</v>
       </c>
       <c r="M4">
-        <v>1.077052717358143</v>
+        <v>1.081537127217708</v>
       </c>
       <c r="N4">
-        <v>1.062693927149535</v>
+        <v>1.065629413490784</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0439773587702</v>
+        <v>1.059952277382248</v>
       </c>
       <c r="D5">
-        <v>1.058580686610661</v>
+        <v>1.065011726274564</v>
       </c>
       <c r="E5">
-        <v>1.061199156618068</v>
+        <v>1.073062965951771</v>
       </c>
       <c r="F5">
-        <v>1.068746029394783</v>
+        <v>1.079397338239582</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069784735458708</v>
+        <v>1.055752756138058</v>
       </c>
       <c r="J5">
-        <v>1.061892779755912</v>
+        <v>1.064277595508309</v>
       </c>
       <c r="K5">
-        <v>1.067811813553195</v>
+        <v>1.067374247351922</v>
       </c>
       <c r="L5">
-        <v>1.070403575753167</v>
+        <v>1.075406869352822</v>
       </c>
       <c r="M5">
-        <v>1.077874362418079</v>
+        <v>1.081726803116696</v>
       </c>
       <c r="N5">
-        <v>1.06340078930397</v>
+        <v>1.065788991768277</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.044171205614679</v>
+        <v>1.059994971496095</v>
       </c>
       <c r="D6">
-        <v>1.058729940772595</v>
+        <v>1.065045401480312</v>
       </c>
       <c r="E6">
-        <v>1.061373143035157</v>
+        <v>1.073103423433902</v>
       </c>
       <c r="F6">
-        <v>1.068919704484449</v>
+        <v>1.079437599921367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069855578635563</v>
+        <v>1.055765711184625</v>
       </c>
       <c r="J6">
-        <v>1.062010810803065</v>
+        <v>1.064304350165127</v>
       </c>
       <c r="K6">
-        <v>1.067924591765753</v>
+        <v>1.067399400083481</v>
       </c>
       <c r="L6">
-        <v>1.070540958355764</v>
+        <v>1.075438859664074</v>
       </c>
       <c r="M6">
-        <v>1.078011789425211</v>
+        <v>1.081758653120304</v>
       </c>
       <c r="N6">
-        <v>1.063518987968748</v>
+        <v>1.065815784419777</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.042834062421556</v>
+        <v>1.059701445555055</v>
       </c>
       <c r="D7">
-        <v>1.057700580379102</v>
+        <v>1.064813882216922</v>
       </c>
       <c r="E7">
-        <v>1.060173376197112</v>
+        <v>1.072825301098479</v>
       </c>
       <c r="F7">
-        <v>1.067722066084579</v>
+        <v>1.079160820432831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069366119866444</v>
+        <v>1.055676549834381</v>
       </c>
       <c r="J7">
-        <v>1.061196384444665</v>
+        <v>1.064120372880303</v>
       </c>
       <c r="K7">
-        <v>1.067146343569986</v>
+        <v>1.067226428429701</v>
       </c>
       <c r="L7">
-        <v>1.06959323003196</v>
+        <v>1.075218906912569</v>
       </c>
       <c r="M7">
-        <v>1.077063731954991</v>
+        <v>1.081539661502198</v>
       </c>
       <c r="N7">
-        <v>1.062703405031503</v>
+        <v>1.065631545866106</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.037137036573938</v>
+        <v>1.058475730589371</v>
       </c>
       <c r="D8">
-        <v>1.053319845145732</v>
+        <v>1.063847121676166</v>
       </c>
       <c r="E8">
-        <v>1.055071456884377</v>
+        <v>1.071664573374112</v>
       </c>
       <c r="F8">
-        <v>1.062628757353925</v>
+        <v>1.078005618308795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067261145192296</v>
+        <v>1.055301881473691</v>
       </c>
       <c r="J8">
-        <v>1.057720204199137</v>
+        <v>1.06335120563993</v>
       </c>
       <c r="K8">
-        <v>1.063822938800668</v>
+        <v>1.066503026144051</v>
       </c>
       <c r="L8">
-        <v>1.065553753384037</v>
+        <v>1.07430001421656</v>
       </c>
       <c r="M8">
-        <v>1.073022296993692</v>
+        <v>1.080624695501194</v>
       </c>
       <c r="N8">
-        <v>1.059222288211303</v>
+        <v>1.064861286320028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.026660774205222</v>
+        <v>1.056320376323778</v>
       </c>
       <c r="D9">
-        <v>1.045286036574839</v>
+        <v>1.062147253084663</v>
       </c>
       <c r="E9">
-        <v>1.045729418683854</v>
+        <v>1.069626027552205</v>
       </c>
       <c r="F9">
-        <v>1.053301029401176</v>
+        <v>1.075976482639574</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063317523100643</v>
+        <v>1.054634217196285</v>
       </c>
       <c r="J9">
-        <v>1.051305967136219</v>
+        <v>1.061995256952316</v>
       </c>
       <c r="K9">
-        <v>1.057684752742459</v>
+        <v>1.065226829769313</v>
       </c>
       <c r="L9">
-        <v>1.058121713492234</v>
+        <v>1.07268267838227</v>
       </c>
       <c r="M9">
-        <v>1.065584722568512</v>
+        <v>1.079013939154782</v>
       </c>
       <c r="N9">
-        <v>1.052798942196033</v>
+        <v>1.063503412029747</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.019351832638635</v>
+        <v>1.054886579342632</v>
       </c>
       <c r="D10">
-        <v>1.039698902389641</v>
+        <v>1.061016574120773</v>
       </c>
       <c r="E10">
-        <v>1.039241126629414</v>
+        <v>1.068271663375814</v>
       </c>
       <c r="F10">
-        <v>1.046821920389647</v>
+        <v>1.074628174406314</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060519162429379</v>
+        <v>1.054184138472289</v>
       </c>
       <c r="J10">
-        <v>1.046818149976406</v>
+        <v>1.061090966820719</v>
       </c>
       <c r="K10">
-        <v>1.053386558675186</v>
+        <v>1.064375109653183</v>
       </c>
       <c r="L10">
-        <v>1.052936261074582</v>
+        <v>1.071605787612268</v>
       </c>
       <c r="M10">
-        <v>1.060394296866953</v>
+        <v>1.077941208028151</v>
       </c>
       <c r="N10">
-        <v>1.048304751821093</v>
+        <v>1.062597837702439</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.016102560042412</v>
+        <v>1.054266481021629</v>
       </c>
       <c r="D11">
-        <v>1.037219992384809</v>
+        <v>1.060527604858273</v>
       </c>
       <c r="E11">
-        <v>1.03636420051855</v>
+        <v>1.067686334628885</v>
       </c>
       <c r="F11">
-        <v>1.043948941012902</v>
+        <v>1.074045416821102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059264478540917</v>
+        <v>1.053988079161572</v>
       </c>
       <c r="J11">
-        <v>1.044820464746478</v>
+        <v>1.060699335645377</v>
       </c>
       <c r="K11">
-        <v>1.051472547428395</v>
+        <v>1.064006100245446</v>
       </c>
       <c r="L11">
-        <v>1.050631447930657</v>
+        <v>1.07113981398687</v>
       </c>
       <c r="M11">
-        <v>1.058087055130072</v>
+        <v>1.077476982196264</v>
       </c>
       <c r="N11">
-        <v>1.046304229649001</v>
+        <v>1.062205650365908</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.014882270604921</v>
+        <v>1.05403626202427</v>
       </c>
       <c r="D12">
-        <v>1.036289818760795</v>
+        <v>1.060346074851123</v>
       </c>
       <c r="E12">
-        <v>1.035284928196121</v>
+        <v>1.067469087243896</v>
       </c>
       <c r="F12">
-        <v>1.04287113539131</v>
+        <v>1.073829116840056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058791719122486</v>
+        <v>1.053915078532337</v>
       </c>
       <c r="J12">
-        <v>1.04406987298715</v>
+        <v>1.060553857289122</v>
       </c>
       <c r="K12">
-        <v>1.050753293198494</v>
+        <v>1.063869003399449</v>
       </c>
       <c r="L12">
-        <v>1.049765970193641</v>
+        <v>1.070966781040445</v>
       </c>
       <c r="M12">
-        <v>1.0572206367399</v>
+        <v>1.077304590473015</v>
       </c>
       <c r="N12">
-        <v>1.04555257196328</v>
+        <v>1.0620599654137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.015144642984621</v>
+        <v>1.054085639642601</v>
       </c>
       <c r="D13">
-        <v>1.036489776644754</v>
+        <v>1.060385009333643</v>
       </c>
       <c r="E13">
-        <v>1.035516926594803</v>
+        <v>1.06751567983835</v>
       </c>
       <c r="F13">
-        <v>1.043102819057989</v>
+        <v>1.073875506558275</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058893435759992</v>
+        <v>1.053930745345175</v>
       </c>
       <c r="J13">
-        <v>1.044231271394073</v>
+        <v>1.06058506328526</v>
       </c>
       <c r="K13">
-        <v>1.050907957585385</v>
+        <v>1.063898412493157</v>
       </c>
       <c r="L13">
-        <v>1.049952049241465</v>
+        <v>1.071003894893787</v>
       </c>
       <c r="M13">
-        <v>1.057406919258808</v>
+        <v>1.077341567142649</v>
       </c>
       <c r="N13">
-        <v>1.045714199574453</v>
+        <v>1.062091215725932</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.016001967249146</v>
+        <v>1.054247448732932</v>
       </c>
       <c r="D14">
-        <v>1.03714329823354</v>
+        <v>1.060512597585829</v>
       </c>
       <c r="E14">
-        <v>1.036275207989887</v>
+        <v>1.067668373420127</v>
       </c>
       <c r="F14">
-        <v>1.043860069676357</v>
+        <v>1.074027534080687</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059225538609697</v>
+        <v>1.053982048482609</v>
       </c>
       <c r="J14">
-        <v>1.044758597583619</v>
+        <v>1.060687310538615</v>
       </c>
       <c r="K14">
-        <v>1.05141326525405</v>
+        <v>1.063994768389724</v>
       </c>
       <c r="L14">
-        <v>1.050560100958664</v>
+        <v>1.07112550999405</v>
       </c>
       <c r="M14">
-        <v>1.05801563117316</v>
+        <v>1.077462731369865</v>
       </c>
       <c r="N14">
-        <v>1.046242274627674</v>
+        <v>1.062193608182115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.016528401041199</v>
+        <v>1.054347159679515</v>
       </c>
       <c r="D15">
-        <v>1.037544695900863</v>
+        <v>1.060591221544525</v>
       </c>
       <c r="E15">
-        <v>1.036740982336749</v>
+        <v>1.067762475517623</v>
       </c>
       <c r="F15">
-        <v>1.044325209183195</v>
+        <v>1.074121224785767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059429260491981</v>
+        <v>1.054013634806476</v>
       </c>
       <c r="J15">
-        <v>1.045082354104372</v>
+        <v>1.060750307271639</v>
       </c>
       <c r="K15">
-        <v>1.051723490215472</v>
+        <v>1.064054132451984</v>
       </c>
       <c r="L15">
-        <v>1.050933487027294</v>
+        <v>1.071200447787763</v>
       </c>
       <c r="M15">
-        <v>1.05838941898808</v>
+        <v>1.077537390308643</v>
       </c>
       <c r="N15">
-        <v>1.046566490919821</v>
+        <v>1.062256694377725</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.019565640071706</v>
+        <v>1.054927749026571</v>
       </c>
       <c r="D16">
-        <v>1.039862126319926</v>
+        <v>1.061049038634759</v>
       </c>
       <c r="E16">
-        <v>1.039430593958328</v>
+        <v>1.068310533441649</v>
       </c>
       <c r="F16">
-        <v>1.047011125593283</v>
+        <v>1.074666872759162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060601504630241</v>
+        <v>1.054197125640089</v>
       </c>
       <c r="J16">
-        <v>1.046949550676683</v>
+        <v>1.061116956757994</v>
       </c>
       <c r="K16">
-        <v>1.053512441045827</v>
+        <v>1.064399595281054</v>
       </c>
       <c r="L16">
-        <v>1.053087934580071</v>
+        <v>1.071636719747174</v>
       </c>
       <c r="M16">
-        <v>1.060546125983928</v>
+        <v>1.077972023046226</v>
       </c>
       <c r="N16">
-        <v>1.048436339125436</v>
+        <v>1.062623864548407</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.021447745440452</v>
+        <v>1.055292137726671</v>
       </c>
       <c r="D17">
-        <v>1.041299522004047</v>
+        <v>1.061336382816695</v>
       </c>
       <c r="E17">
-        <v>1.041099300418885</v>
+        <v>1.06865461659685</v>
       </c>
       <c r="F17">
-        <v>1.04867750972526</v>
+        <v>1.075009430561148</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061325140114214</v>
+        <v>1.054311911201977</v>
       </c>
       <c r="J17">
-        <v>1.048105957013612</v>
+        <v>1.061346928943351</v>
       </c>
       <c r="K17">
-        <v>1.054620200207466</v>
+        <v>1.064616239795748</v>
       </c>
       <c r="L17">
-        <v>1.054423142471195</v>
+        <v>1.071910470099412</v>
       </c>
       <c r="M17">
-        <v>1.061882679377922</v>
+        <v>1.078244730894343</v>
       </c>
       <c r="N17">
-        <v>1.049594387692004</v>
+        <v>1.062854163320644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022537445207163</v>
+        <v>1.055504751316208</v>
       </c>
       <c r="D18">
-        <v>1.042132206605505</v>
+        <v>1.061504045750204</v>
       </c>
       <c r="E18">
-        <v>1.042066157244561</v>
+        <v>1.068855422429631</v>
       </c>
       <c r="F18">
-        <v>1.049643008750756</v>
+        <v>1.075209341748139</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061743096199879</v>
+        <v>1.054378750529285</v>
       </c>
       <c r="J18">
-        <v>1.048775244753191</v>
+        <v>1.061481061236938</v>
       </c>
       <c r="K18">
-        <v>1.055261262395439</v>
+        <v>1.064742584640428</v>
       </c>
       <c r="L18">
-        <v>1.055196238443867</v>
+        <v>1.07207017553302</v>
       </c>
       <c r="M18">
-        <v>1.062656533413233</v>
+        <v>1.078403823102411</v>
       </c>
       <c r="N18">
-        <v>1.050264625896943</v>
+        <v>1.062988486097474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022907650521586</v>
+        <v>1.055577259203309</v>
       </c>
       <c r="D19">
-        <v>1.042415172421621</v>
+        <v>1.061561224598764</v>
       </c>
       <c r="E19">
-        <v>1.042394748023077</v>
+        <v>1.068923910293127</v>
       </c>
       <c r="F19">
-        <v>1.049971135858122</v>
+        <v>1.075277523722665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061884915749209</v>
+        <v>1.054401521800982</v>
       </c>
       <c r="J19">
-        <v>1.049002579695371</v>
+        <v>1.061526795732762</v>
       </c>
       <c r="K19">
-        <v>1.055478997871944</v>
+        <v>1.06478566150248</v>
       </c>
       <c r="L19">
-        <v>1.055458888641796</v>
+        <v>1.072124636261069</v>
       </c>
       <c r="M19">
-        <v>1.062919437474412</v>
+        <v>1.07845807386182</v>
       </c>
       <c r="N19">
-        <v>1.050492283680817</v>
+        <v>1.063034285541528</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.021246655964537</v>
+        <v>1.055253034829977</v>
       </c>
       <c r="D20">
-        <v>1.041145898167716</v>
+        <v>1.06130554729552</v>
       </c>
       <c r="E20">
-        <v>1.040920937030261</v>
+        <v>1.0686176885539</v>
       </c>
       <c r="F20">
-        <v>1.048499395798304</v>
+        <v>1.074972666684141</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061247929687373</v>
+        <v>1.05429960749636</v>
       </c>
       <c r="J20">
-        <v>1.047982428656971</v>
+        <v>1.061322255778453</v>
       </c>
       <c r="K20">
-        <v>1.05450187561231</v>
+        <v>1.064592997974899</v>
       </c>
       <c r="L20">
-        <v>1.054280480758786</v>
+        <v>1.071881096011726</v>
       </c>
       <c r="M20">
-        <v>1.061739876053138</v>
+        <v>1.078215469189999</v>
       </c>
       <c r="N20">
-        <v>1.049470683910928</v>
+        <v>1.062829455117023</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.015749881220089</v>
+        <v>1.05419979685651</v>
       </c>
       <c r="D21">
-        <v>1.036951115425676</v>
+        <v>1.060475023392759</v>
       </c>
       <c r="E21">
-        <v>1.036052211458946</v>
+        <v>1.067623404267255</v>
       </c>
       <c r="F21">
-        <v>1.043637376620288</v>
+        <v>1.073982761276298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059127930087004</v>
+        <v>1.053966945826006</v>
       </c>
       <c r="J21">
-        <v>1.044603552747805</v>
+        <v>1.060657201513695</v>
       </c>
       <c r="K21">
-        <v>1.051264697036737</v>
+        <v>1.063966394808184</v>
       </c>
       <c r="L21">
-        <v>1.050381307078035</v>
+        <v>1.071089695976712</v>
       </c>
       <c r="M21">
-        <v>1.057836643921944</v>
+        <v>1.07742705034358</v>
       </c>
       <c r="N21">
-        <v>1.046087009610409</v>
+        <v>1.062163456398925</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.012216146948334</v>
+        <v>1.053538239450062</v>
       </c>
       <c r="D22">
-        <v>1.034259090286989</v>
+        <v>1.059953390121631</v>
       </c>
       <c r="E22">
-        <v>1.032929128459048</v>
+        <v>1.066999241285274</v>
       </c>
       <c r="F22">
-        <v>1.040518517180976</v>
+        <v>1.073361307284919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057756017487162</v>
+        <v>1.053756773327458</v>
       </c>
       <c r="J22">
-        <v>1.042429370189393</v>
+        <v>1.060239003372456</v>
       </c>
       <c r="K22">
-        <v>1.049181105869556</v>
+        <v>1.063572249627977</v>
       </c>
       <c r="L22">
-        <v>1.047875309990397</v>
+        <v>1.070592403614995</v>
       </c>
       <c r="M22">
-        <v>1.055327873569051</v>
+        <v>1.076931586189298</v>
       </c>
       <c r="N22">
-        <v>1.043909739463382</v>
+        <v>1.061744664368358</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.014097048742238</v>
+        <v>1.053888881060621</v>
       </c>
       <c r="D23">
-        <v>1.035691511704685</v>
+        <v>1.060229865156718</v>
       </c>
       <c r="E23">
-        <v>1.034590785697167</v>
+        <v>1.067330028204033</v>
       </c>
       <c r="F23">
-        <v>1.042177932927032</v>
+        <v>1.07369066229222</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05848707998105</v>
+        <v>1.053868285730096</v>
       </c>
       <c r="J23">
-        <v>1.043586796273261</v>
+        <v>1.060460702708785</v>
       </c>
       <c r="K23">
-        <v>1.050290357727738</v>
+        <v>1.063781209664651</v>
       </c>
       <c r="L23">
-        <v>1.049209097437846</v>
+        <v>1.070855999585207</v>
       </c>
       <c r="M23">
-        <v>1.056663151181584</v>
+        <v>1.077194217359397</v>
       </c>
       <c r="N23">
-        <v>1.045068809225047</v>
+        <v>1.061966678543174</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.021337544626574</v>
+        <v>1.055270703524001</v>
       </c>
       <c r="D24">
-        <v>1.041215331824205</v>
+        <v>1.061319480355221</v>
       </c>
       <c r="E24">
-        <v>1.041001551729193</v>
+        <v>1.068634374413581</v>
       </c>
       <c r="F24">
-        <v>1.048579897786602</v>
+        <v>1.074989278379547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061282830494593</v>
+        <v>1.054305167360993</v>
       </c>
       <c r="J24">
-        <v>1.048038261921577</v>
+        <v>1.061333404540098</v>
       </c>
       <c r="K24">
-        <v>1.054555357060638</v>
+        <v>1.064603500015944</v>
       </c>
       <c r="L24">
-        <v>1.054344961054697</v>
+        <v>1.071894368800407</v>
       </c>
       <c r="M24">
-        <v>1.061804420420452</v>
+        <v>1.078228691213405</v>
       </c>
       <c r="N24">
-        <v>1.049526596465174</v>
+        <v>1.062840619711188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.029424016251188</v>
+        <v>1.056877044938302</v>
       </c>
       <c r="D25">
-        <v>1.047402201485172</v>
+        <v>1.062586263882378</v>
       </c>
       <c r="E25">
-        <v>1.048188608155163</v>
+        <v>1.070152224717399</v>
       </c>
       <c r="F25">
-        <v>1.055756599680735</v>
+        <v>1.076500285544853</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064365980268365</v>
+        <v>1.054807703230323</v>
       </c>
       <c r="J25">
-        <v>1.053000159588975</v>
+        <v>1.062345864057152</v>
       </c>
       <c r="K25">
-        <v>1.059306670721332</v>
+        <v>1.065556924506107</v>
       </c>
       <c r="L25">
-        <v>1.060082233641128</v>
+        <v>1.073100569025553</v>
       </c>
       <c r="M25">
-        <v>1.067546908991976</v>
+        <v>1.079430168929346</v>
       </c>
       <c r="N25">
-        <v>1.054495540596398</v>
+        <v>1.063854517036887</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058160485012468</v>
+        <v>1.035641771268783</v>
       </c>
       <c r="D2">
-        <v>1.063598484966932</v>
+        <v>1.052171419231217</v>
       </c>
       <c r="E2">
-        <v>1.071366213069762</v>
+        <v>1.053734963707732</v>
       </c>
       <c r="F2">
-        <v>1.077708658268236</v>
+        <v>1.061294414702239</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0552049193028</v>
+        <v>1.066703736718464</v>
       </c>
       <c r="J2">
-        <v>1.06315314894239</v>
+        <v>1.056806303743319</v>
       </c>
       <c r="K2">
-        <v>1.066316690672659</v>
+        <v>1.062948798995527</v>
       </c>
       <c r="L2">
-        <v>1.074063577813555</v>
+        <v>1.064493202270496</v>
       </c>
       <c r="M2">
-        <v>1.080389246855213</v>
+        <v>1.071961096306046</v>
       </c>
       <c r="N2">
-        <v>1.064662948359259</v>
+        <v>1.058307089912012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059093648101666</v>
+        <v>1.040032096906824</v>
       </c>
       <c r="D3">
-        <v>1.064334487521868</v>
+        <v>1.055544991400847</v>
       </c>
       <c r="E3">
-        <v>1.072249595881637</v>
+        <v>1.057662137610171</v>
       </c>
       <c r="F3">
-        <v>1.078587871538276</v>
+        <v>1.065215150063274</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055491230870675</v>
+        <v>1.068334672325376</v>
       </c>
       <c r="J3">
-        <v>1.063739145959732</v>
+        <v>1.059487904031844</v>
       </c>
       <c r="K3">
-        <v>1.066867933516909</v>
+        <v>1.06551326807741</v>
       </c>
       <c r="L3">
-        <v>1.074763334994814</v>
+        <v>1.06760678283036</v>
       </c>
       <c r="M3">
-        <v>1.081086054046755</v>
+        <v>1.075076429011357</v>
       </c>
       <c r="N3">
-        <v>1.06524977755958</v>
+        <v>1.06099249838053</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059698049085316</v>
+        <v>1.042818529192465</v>
       </c>
       <c r="D4">
-        <v>1.064811203255671</v>
+        <v>1.05768862513471</v>
       </c>
       <c r="E4">
-        <v>1.072822083231227</v>
+        <v>1.060159444044031</v>
       </c>
       <c r="F4">
-        <v>1.079157618058996</v>
+        <v>1.067708158398663</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055675516836712</v>
+        <v>1.069360423236007</v>
       </c>
       <c r="J4">
-        <v>1.064118243528904</v>
+        <v>1.06118692000329</v>
       </c>
       <c r="K4">
-        <v>1.067224426321635</v>
+        <v>1.067137298645351</v>
       </c>
       <c r="L4">
-        <v>1.075216361554257</v>
+        <v>1.069582219568767</v>
       </c>
       <c r="M4">
-        <v>1.081537127217708</v>
+        <v>1.077052717358143</v>
       </c>
       <c r="N4">
-        <v>1.065629413490784</v>
+        <v>1.062693927149535</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059952277382248</v>
+        <v>1.0439773587702</v>
       </c>
       <c r="D5">
-        <v>1.065011726274564</v>
+        <v>1.058580686610662</v>
       </c>
       <c r="E5">
-        <v>1.073062965951771</v>
+        <v>1.061199156618069</v>
       </c>
       <c r="F5">
-        <v>1.079397338239582</v>
+        <v>1.068746029394784</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055752756138058</v>
+        <v>1.069784735458708</v>
       </c>
       <c r="J5">
-        <v>1.064277595508309</v>
+        <v>1.061892779755912</v>
       </c>
       <c r="K5">
-        <v>1.067374247351922</v>
+        <v>1.067811813553196</v>
       </c>
       <c r="L5">
-        <v>1.075406869352822</v>
+        <v>1.070403575753168</v>
       </c>
       <c r="M5">
-        <v>1.081726803116696</v>
+        <v>1.077874362418079</v>
       </c>
       <c r="N5">
-        <v>1.065788991768277</v>
+        <v>1.06340078930397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059994971496095</v>
+        <v>1.044171205614678</v>
       </c>
       <c r="D6">
-        <v>1.065045401480312</v>
+        <v>1.058729940772593</v>
       </c>
       <c r="E6">
-        <v>1.073103423433902</v>
+        <v>1.061373143035155</v>
       </c>
       <c r="F6">
-        <v>1.079437599921367</v>
+        <v>1.068919704484448</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055765711184625</v>
+        <v>1.069855578635563</v>
       </c>
       <c r="J6">
-        <v>1.064304350165127</v>
+        <v>1.062010810803064</v>
       </c>
       <c r="K6">
-        <v>1.067399400083481</v>
+        <v>1.067924591765752</v>
       </c>
       <c r="L6">
-        <v>1.075438859664074</v>
+        <v>1.070540958355763</v>
       </c>
       <c r="M6">
-        <v>1.081758653120304</v>
+        <v>1.07801178942521</v>
       </c>
       <c r="N6">
-        <v>1.065815784419777</v>
+        <v>1.063518987968747</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059701445555055</v>
+        <v>1.042834062421556</v>
       </c>
       <c r="D7">
-        <v>1.064813882216922</v>
+        <v>1.057700580379102</v>
       </c>
       <c r="E7">
-        <v>1.072825301098479</v>
+        <v>1.060173376197111</v>
       </c>
       <c r="F7">
-        <v>1.079160820432831</v>
+        <v>1.067722066084579</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055676549834381</v>
+        <v>1.069366119866444</v>
       </c>
       <c r="J7">
-        <v>1.064120372880303</v>
+        <v>1.061196384444664</v>
       </c>
       <c r="K7">
-        <v>1.067226428429701</v>
+        <v>1.067146343569986</v>
       </c>
       <c r="L7">
-        <v>1.075218906912569</v>
+        <v>1.069593230031959</v>
       </c>
       <c r="M7">
-        <v>1.081539661502198</v>
+        <v>1.07706373195499</v>
       </c>
       <c r="N7">
-        <v>1.065631545866106</v>
+        <v>1.062703405031502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058475730589371</v>
+        <v>1.03713703657394</v>
       </c>
       <c r="D8">
-        <v>1.063847121676166</v>
+        <v>1.053319845145734</v>
       </c>
       <c r="E8">
-        <v>1.071664573374112</v>
+        <v>1.055071456884379</v>
       </c>
       <c r="F8">
-        <v>1.078005618308795</v>
+        <v>1.062628757353927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055301881473691</v>
+        <v>1.067261145192297</v>
       </c>
       <c r="J8">
-        <v>1.06335120563993</v>
+        <v>1.057720204199139</v>
       </c>
       <c r="K8">
-        <v>1.066503026144051</v>
+        <v>1.06382293880067</v>
       </c>
       <c r="L8">
-        <v>1.07430001421656</v>
+        <v>1.065553753384039</v>
       </c>
       <c r="M8">
-        <v>1.080624695501194</v>
+        <v>1.073022296993694</v>
       </c>
       <c r="N8">
-        <v>1.064861286320028</v>
+        <v>1.059222288211304</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.056320376323778</v>
+        <v>1.026660774205223</v>
       </c>
       <c r="D9">
-        <v>1.062147253084663</v>
+        <v>1.045286036574839</v>
       </c>
       <c r="E9">
-        <v>1.069626027552205</v>
+        <v>1.045729418683854</v>
       </c>
       <c r="F9">
-        <v>1.075976482639574</v>
+        <v>1.053301029401176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054634217196285</v>
+        <v>1.063317523100644</v>
       </c>
       <c r="J9">
-        <v>1.061995256952316</v>
+        <v>1.05130596713622</v>
       </c>
       <c r="K9">
-        <v>1.065226829769313</v>
+        <v>1.05768475274246</v>
       </c>
       <c r="L9">
-        <v>1.07268267838227</v>
+        <v>1.058121713492234</v>
       </c>
       <c r="M9">
-        <v>1.079013939154782</v>
+        <v>1.065584722568512</v>
       </c>
       <c r="N9">
-        <v>1.063503412029747</v>
+        <v>1.052798942196033</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.054886579342632</v>
+        <v>1.019351832638634</v>
       </c>
       <c r="D10">
-        <v>1.061016574120773</v>
+        <v>1.03969890238964</v>
       </c>
       <c r="E10">
-        <v>1.068271663375814</v>
+        <v>1.039241126629413</v>
       </c>
       <c r="F10">
-        <v>1.074628174406314</v>
+        <v>1.046821920389646</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054184138472289</v>
+        <v>1.060519162429379</v>
       </c>
       <c r="J10">
-        <v>1.061090966820719</v>
+        <v>1.046818149976406</v>
       </c>
       <c r="K10">
-        <v>1.064375109653183</v>
+        <v>1.053386558675185</v>
       </c>
       <c r="L10">
-        <v>1.071605787612268</v>
+        <v>1.052936261074581</v>
       </c>
       <c r="M10">
-        <v>1.077941208028151</v>
+        <v>1.060394296866952</v>
       </c>
       <c r="N10">
-        <v>1.062597837702439</v>
+        <v>1.048304751821093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054266481021629</v>
+        <v>1.016102560042412</v>
       </c>
       <c r="D11">
-        <v>1.060527604858273</v>
+        <v>1.037219992384808</v>
       </c>
       <c r="E11">
-        <v>1.067686334628885</v>
+        <v>1.03636420051855</v>
       </c>
       <c r="F11">
-        <v>1.074045416821102</v>
+        <v>1.043948941012901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053988079161572</v>
+        <v>1.059264478540917</v>
       </c>
       <c r="J11">
-        <v>1.060699335645377</v>
+        <v>1.044820464746478</v>
       </c>
       <c r="K11">
-        <v>1.064006100245446</v>
+        <v>1.051472547428394</v>
       </c>
       <c r="L11">
-        <v>1.07113981398687</v>
+        <v>1.050631447930656</v>
       </c>
       <c r="M11">
-        <v>1.077476982196264</v>
+        <v>1.058087055130071</v>
       </c>
       <c r="N11">
-        <v>1.062205650365908</v>
+        <v>1.046304229649</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05403626202427</v>
+        <v>1.01488227060492</v>
       </c>
       <c r="D12">
-        <v>1.060346074851123</v>
+        <v>1.036289818760794</v>
       </c>
       <c r="E12">
-        <v>1.067469087243896</v>
+        <v>1.03528492819612</v>
       </c>
       <c r="F12">
-        <v>1.073829116840056</v>
+        <v>1.042871135391309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053915078532337</v>
+        <v>1.058791719122485</v>
       </c>
       <c r="J12">
-        <v>1.060553857289122</v>
+        <v>1.044069872987149</v>
       </c>
       <c r="K12">
-        <v>1.063869003399449</v>
+        <v>1.050753293198493</v>
       </c>
       <c r="L12">
-        <v>1.070966781040445</v>
+        <v>1.04976597019364</v>
       </c>
       <c r="M12">
-        <v>1.077304590473015</v>
+        <v>1.057220636739899</v>
       </c>
       <c r="N12">
-        <v>1.0620599654137</v>
+        <v>1.045552571963279</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054085639642601</v>
+        <v>1.015144642984622</v>
       </c>
       <c r="D13">
-        <v>1.060385009333643</v>
+        <v>1.036489776644754</v>
       </c>
       <c r="E13">
-        <v>1.06751567983835</v>
+        <v>1.035516926594803</v>
       </c>
       <c r="F13">
-        <v>1.073875506558275</v>
+        <v>1.04310281905799</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053930745345175</v>
+        <v>1.058893435759993</v>
       </c>
       <c r="J13">
-        <v>1.06058506328526</v>
+        <v>1.044231271394073</v>
       </c>
       <c r="K13">
-        <v>1.063898412493157</v>
+        <v>1.050907957585385</v>
       </c>
       <c r="L13">
-        <v>1.071003894893787</v>
+        <v>1.049952049241465</v>
       </c>
       <c r="M13">
-        <v>1.077341567142649</v>
+        <v>1.057406919258808</v>
       </c>
       <c r="N13">
-        <v>1.062091215725932</v>
+        <v>1.045714199574453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054247448732932</v>
+        <v>1.016001967249147</v>
       </c>
       <c r="D14">
-        <v>1.060512597585829</v>
+        <v>1.037143298233541</v>
       </c>
       <c r="E14">
-        <v>1.067668373420127</v>
+        <v>1.036275207989888</v>
       </c>
       <c r="F14">
-        <v>1.074027534080687</v>
+        <v>1.043860069676358</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053982048482609</v>
+        <v>1.059225538609697</v>
       </c>
       <c r="J14">
-        <v>1.060687310538615</v>
+        <v>1.04475859758362</v>
       </c>
       <c r="K14">
-        <v>1.063994768389724</v>
+        <v>1.051413265254051</v>
       </c>
       <c r="L14">
-        <v>1.07112550999405</v>
+        <v>1.050560100958665</v>
       </c>
       <c r="M14">
-        <v>1.077462731369865</v>
+        <v>1.058015631173161</v>
       </c>
       <c r="N14">
-        <v>1.062193608182115</v>
+        <v>1.046242274627675</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054347159679515</v>
+        <v>1.016528401041199</v>
       </c>
       <c r="D15">
-        <v>1.060591221544525</v>
+        <v>1.037544695900863</v>
       </c>
       <c r="E15">
-        <v>1.067762475517623</v>
+        <v>1.036740982336749</v>
       </c>
       <c r="F15">
-        <v>1.074121224785767</v>
+        <v>1.044325209183196</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054013634806476</v>
+        <v>1.059429260491981</v>
       </c>
       <c r="J15">
-        <v>1.060750307271639</v>
+        <v>1.045082354104372</v>
       </c>
       <c r="K15">
-        <v>1.064054132451984</v>
+        <v>1.051723490215473</v>
       </c>
       <c r="L15">
-        <v>1.071200447787763</v>
+        <v>1.050933487027295</v>
       </c>
       <c r="M15">
-        <v>1.077537390308643</v>
+        <v>1.05838941898808</v>
       </c>
       <c r="N15">
-        <v>1.062256694377725</v>
+        <v>1.046566490919822</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054927749026571</v>
+        <v>1.019565640071705</v>
       </c>
       <c r="D16">
-        <v>1.061049038634759</v>
+        <v>1.039862126319924</v>
       </c>
       <c r="E16">
-        <v>1.068310533441649</v>
+        <v>1.039430593958327</v>
       </c>
       <c r="F16">
-        <v>1.074666872759162</v>
+        <v>1.047011125593282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054197125640089</v>
+        <v>1.060601504630241</v>
       </c>
       <c r="J16">
-        <v>1.061116956757994</v>
+        <v>1.046949550676682</v>
       </c>
       <c r="K16">
-        <v>1.064399595281054</v>
+        <v>1.053512441045825</v>
       </c>
       <c r="L16">
-        <v>1.071636719747174</v>
+        <v>1.053087934580069</v>
       </c>
       <c r="M16">
-        <v>1.077972023046226</v>
+        <v>1.060546125983927</v>
       </c>
       <c r="N16">
-        <v>1.062623864548407</v>
+        <v>1.048436339125435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.055292137726671</v>
+        <v>1.021447745440452</v>
       </c>
       <c r="D17">
-        <v>1.061336382816695</v>
+        <v>1.041299522004047</v>
       </c>
       <c r="E17">
-        <v>1.06865461659685</v>
+        <v>1.041099300418885</v>
       </c>
       <c r="F17">
-        <v>1.075009430561148</v>
+        <v>1.04867750972526</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054311911201977</v>
+        <v>1.061325140114214</v>
       </c>
       <c r="J17">
-        <v>1.061346928943351</v>
+        <v>1.048105957013612</v>
       </c>
       <c r="K17">
-        <v>1.064616239795748</v>
+        <v>1.054620200207466</v>
       </c>
       <c r="L17">
-        <v>1.071910470099412</v>
+        <v>1.054423142471195</v>
       </c>
       <c r="M17">
-        <v>1.078244730894343</v>
+        <v>1.061882679377922</v>
       </c>
       <c r="N17">
-        <v>1.062854163320644</v>
+        <v>1.049594387692005</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055504751316208</v>
+        <v>1.022537445207163</v>
       </c>
       <c r="D18">
-        <v>1.061504045750204</v>
+        <v>1.042132206605505</v>
       </c>
       <c r="E18">
-        <v>1.068855422429631</v>
+        <v>1.042066157244562</v>
       </c>
       <c r="F18">
-        <v>1.075209341748139</v>
+        <v>1.049643008750756</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054378750529285</v>
+        <v>1.061743096199879</v>
       </c>
       <c r="J18">
-        <v>1.061481061236938</v>
+        <v>1.048775244753192</v>
       </c>
       <c r="K18">
-        <v>1.064742584640428</v>
+        <v>1.055261262395439</v>
       </c>
       <c r="L18">
-        <v>1.07207017553302</v>
+        <v>1.055196238443868</v>
       </c>
       <c r="M18">
-        <v>1.078403823102411</v>
+        <v>1.062656533413234</v>
       </c>
       <c r="N18">
-        <v>1.062988486097474</v>
+        <v>1.050264625896943</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055577259203309</v>
+        <v>1.022907650521587</v>
       </c>
       <c r="D19">
-        <v>1.061561224598764</v>
+        <v>1.042415172421621</v>
       </c>
       <c r="E19">
-        <v>1.068923910293127</v>
+        <v>1.042394748023078</v>
       </c>
       <c r="F19">
-        <v>1.075277523722665</v>
+        <v>1.049971135858123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054401521800982</v>
+        <v>1.06188491574921</v>
       </c>
       <c r="J19">
-        <v>1.061526795732762</v>
+        <v>1.049002579695373</v>
       </c>
       <c r="K19">
-        <v>1.06478566150248</v>
+        <v>1.055478997871945</v>
       </c>
       <c r="L19">
-        <v>1.072124636261069</v>
+        <v>1.055458888641797</v>
       </c>
       <c r="M19">
-        <v>1.07845807386182</v>
+        <v>1.062919437474413</v>
       </c>
       <c r="N19">
-        <v>1.063034285541528</v>
+        <v>1.050492283680818</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.055253034829977</v>
+        <v>1.021246655964537</v>
       </c>
       <c r="D20">
-        <v>1.06130554729552</v>
+        <v>1.041145898167716</v>
       </c>
       <c r="E20">
-        <v>1.0686176885539</v>
+        <v>1.040920937030261</v>
       </c>
       <c r="F20">
-        <v>1.074972666684141</v>
+        <v>1.048499395798305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05429960749636</v>
+        <v>1.061247929687373</v>
       </c>
       <c r="J20">
-        <v>1.061322255778453</v>
+        <v>1.047982428656971</v>
       </c>
       <c r="K20">
-        <v>1.064592997974899</v>
+        <v>1.05450187561231</v>
       </c>
       <c r="L20">
-        <v>1.071881096011726</v>
+        <v>1.054280480758786</v>
       </c>
       <c r="M20">
-        <v>1.078215469189999</v>
+        <v>1.061739876053139</v>
       </c>
       <c r="N20">
-        <v>1.062829455117023</v>
+        <v>1.049470683910928</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05419979685651</v>
+        <v>1.015749881220089</v>
       </c>
       <c r="D21">
-        <v>1.060475023392759</v>
+        <v>1.036951115425676</v>
       </c>
       <c r="E21">
-        <v>1.067623404267255</v>
+        <v>1.036052211458946</v>
       </c>
       <c r="F21">
-        <v>1.073982761276298</v>
+        <v>1.043637376620288</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053966945826006</v>
+        <v>1.059127930087003</v>
       </c>
       <c r="J21">
-        <v>1.060657201513695</v>
+        <v>1.044603552747805</v>
       </c>
       <c r="K21">
-        <v>1.063966394808184</v>
+        <v>1.051264697036737</v>
       </c>
       <c r="L21">
-        <v>1.071089695976712</v>
+        <v>1.050381307078035</v>
       </c>
       <c r="M21">
-        <v>1.07742705034358</v>
+        <v>1.057836643921944</v>
       </c>
       <c r="N21">
-        <v>1.062163456398925</v>
+        <v>1.046087009610409</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053538239450062</v>
+        <v>1.012216146948333</v>
       </c>
       <c r="D22">
-        <v>1.059953390121631</v>
+        <v>1.034259090286989</v>
       </c>
       <c r="E22">
-        <v>1.066999241285274</v>
+        <v>1.032929128459048</v>
       </c>
       <c r="F22">
-        <v>1.073361307284919</v>
+        <v>1.040518517180976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053756773327458</v>
+        <v>1.057756017487162</v>
       </c>
       <c r="J22">
-        <v>1.060239003372456</v>
+        <v>1.042429370189392</v>
       </c>
       <c r="K22">
-        <v>1.063572249627977</v>
+        <v>1.049181105869556</v>
       </c>
       <c r="L22">
-        <v>1.070592403614995</v>
+        <v>1.047875309990397</v>
       </c>
       <c r="M22">
-        <v>1.076931586189298</v>
+        <v>1.055327873569051</v>
       </c>
       <c r="N22">
-        <v>1.061744664368358</v>
+        <v>1.043909739463382</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.053888881060621</v>
+        <v>1.014097048742239</v>
       </c>
       <c r="D23">
-        <v>1.060229865156718</v>
+        <v>1.035691511704686</v>
       </c>
       <c r="E23">
-        <v>1.067330028204033</v>
+        <v>1.034590785697168</v>
       </c>
       <c r="F23">
-        <v>1.07369066229222</v>
+        <v>1.042177932927033</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053868285730096</v>
+        <v>1.05848707998105</v>
       </c>
       <c r="J23">
-        <v>1.060460702708785</v>
+        <v>1.043586796273261</v>
       </c>
       <c r="K23">
-        <v>1.063781209664651</v>
+        <v>1.050290357727738</v>
       </c>
       <c r="L23">
-        <v>1.070855999585207</v>
+        <v>1.049209097437847</v>
       </c>
       <c r="M23">
-        <v>1.077194217359397</v>
+        <v>1.056663151181585</v>
       </c>
       <c r="N23">
-        <v>1.061966678543174</v>
+        <v>1.045068809225048</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.055270703524001</v>
+        <v>1.021337544626575</v>
       </c>
       <c r="D24">
-        <v>1.061319480355221</v>
+        <v>1.041215331824205</v>
       </c>
       <c r="E24">
-        <v>1.068634374413581</v>
+        <v>1.041001551729193</v>
       </c>
       <c r="F24">
-        <v>1.074989278379547</v>
+        <v>1.048579897786602</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054305167360993</v>
+        <v>1.061282830494593</v>
       </c>
       <c r="J24">
-        <v>1.061333404540098</v>
+        <v>1.048038261921577</v>
       </c>
       <c r="K24">
-        <v>1.064603500015944</v>
+        <v>1.054555357060639</v>
       </c>
       <c r="L24">
-        <v>1.071894368800407</v>
+        <v>1.054344961054697</v>
       </c>
       <c r="M24">
-        <v>1.078228691213405</v>
+        <v>1.061804420420453</v>
       </c>
       <c r="N24">
-        <v>1.062840619711188</v>
+        <v>1.049526596465174</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056877044938302</v>
+        <v>1.029424016251187</v>
       </c>
       <c r="D25">
-        <v>1.062586263882378</v>
+        <v>1.04740220148517</v>
       </c>
       <c r="E25">
-        <v>1.070152224717399</v>
+        <v>1.048188608155162</v>
       </c>
       <c r="F25">
-        <v>1.076500285544853</v>
+        <v>1.055756599680734</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054807703230323</v>
+        <v>1.064365980268364</v>
       </c>
       <c r="J25">
-        <v>1.062345864057152</v>
+        <v>1.053000159588974</v>
       </c>
       <c r="K25">
-        <v>1.065556924506107</v>
+        <v>1.059306670721331</v>
       </c>
       <c r="L25">
-        <v>1.073100569025553</v>
+        <v>1.060082233641127</v>
       </c>
       <c r="M25">
-        <v>1.079430168929346</v>
+        <v>1.067546908991975</v>
       </c>
       <c r="N25">
-        <v>1.063854517036887</v>
+        <v>1.054495540596397</v>
       </c>
     </row>
   </sheetData>
